--- a/src/analysis_examples/circadb/results_jtk/cosinor_10491136_tnik_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10491136_tnik_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.22011772877597674, 0.3659102222171538]</t>
+          <t>[0.21849001980813765, 0.3675379311849929]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.043550672072627e-08</v>
+        <v>5.792188284559074e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>4.043550672072627e-08</v>
+        <v>5.792188284559074e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6415264277600778</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.48881691388257575, 0.5661959728720221]</t>
+          <t>[0.48882435843701205, 0.5661885283175858]</t>
         </is>
       </c>
       <c r="U2" t="n">
